--- a/weather.xlsx
+++ b/weather.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025.01.28 18:29:20</t>
+          <t>2025.01.29 19:14:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,23 +490,23 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1000</v>
+        <v>1014</v>
       </c>
       <c r="E2" t="n">
-        <v>282.29</v>
+        <v>278.96</v>
       </c>
       <c r="F2" t="n">
-        <v>282.54</v>
+        <v>280.31</v>
       </c>
       <c r="G2" t="n">
-        <v>2.72</v>
+        <v>5.59</v>
       </c>
       <c r="H2" t="n">
-        <v>281.1</v>
+        <v>276.94</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>overcast clouds</t>
+          <t>broken clouds</t>
         </is>
       </c>
     </row>
